--- a/sbgl/WebRoot/upload/LeaseOrder.xlsx
+++ b/sbgl/WebRoot/upload/LeaseOrder.xlsx
@@ -288,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +379,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -874,13 +883,13 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
